--- a/01_要件定義/【チーム演習】WBS.xlsx
+++ b/01_要件定義/【チーム演習】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415460\Desktop\KCCS研修関連\チーム演習15\team-project-15\要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415460\Desktop\KCCS研修関連\チーム演習15\team-project-15\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F492033-6040-41BB-9FDE-49A4592604A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569B017-F387-4B0C-B383-F220BF682976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>年</t>
   </si>
@@ -287,6 +287,43 @@
       <t>ノハラ</t>
     </rPh>
     <rPh sb="6" eb="8">
+      <t>ハコザキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>箱崎,野原,佐藤,朱宮,小川,中野,山口</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>中野,野原</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノハラ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>小川,朱宮,山口</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュミヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤマグチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>佐藤,箱﨑</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ハコザキ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -716,6 +753,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -738,7 +776,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -960,7 +997,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -985,30 +1022,30 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="35">
         <v>2025</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
@@ -1022,52 +1059,52 @@
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="35">
         <v>7</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="36">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="37">
         <v>8</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="39"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="26" t="s">
@@ -1141,8 +1178,8 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1155,8 +1192,8 @@
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1228,39 +1265,39 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="32"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1">
       <c r="A6" s="15">
@@ -1318,7 +1355,7 @@
       <c r="F7" s="20">
         <v>45852</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -1367,7 +1404,7 @@
       <c r="F8" s="20">
         <v>45852</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="29">
         <v>1</v>
       </c>
       <c r="H8" s="27" t="s">
@@ -1416,7 +1453,7 @@
       <c r="F9" s="20">
         <v>45852</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
       <c r="H9" s="27" t="s">
@@ -1465,7 +1502,7 @@
       <c r="F10" s="20">
         <v>45852</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
@@ -1551,7 +1588,7 @@
       <c r="F12" s="20">
         <v>45853</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -1600,7 +1637,7 @@
       <c r="F13" s="20">
         <v>45853</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="29">
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
@@ -1649,7 +1686,7 @@
       <c r="F14" s="20">
         <v>45853</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="29">
         <v>1</v>
       </c>
       <c r="H14" s="27" t="s">
@@ -1698,7 +1735,7 @@
       <c r="F15" s="20">
         <v>45853</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="29">
         <v>1</v>
       </c>
       <c r="H15" s="27" t="s">
@@ -1747,7 +1784,7 @@
       <c r="F16" s="20">
         <v>45853</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="29">
         <v>1</v>
       </c>
       <c r="H16" s="27" t="s">
@@ -1833,7 +1870,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="27" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1878,7 +1915,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="27" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1923,7 +1960,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="27" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -1965,10 +2002,10 @@
       <c r="E21" s="20">
         <v>45853</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2010,7 +2047,7 @@
       <c r="E22" s="21">
         <v>45854</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
         <v>20</v>
